--- a/biology/Botanique/Ranunculus_peltatus/Ranunculus_peltatus.xlsx
+++ b/biology/Botanique/Ranunculus_peltatus/Ranunculus_peltatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus peltatus, la Renoncule peltée, est une espèce de plante à fleurs de la famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (19 juillet 2013)[1] (Attention: cette liste brute contient possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (19 juillet 2013) (Attention: cette liste brute contient possiblement des synonymes) :
 Ranunculus peltatus subsp. baudotii (Godr.) Meikle ex C.D.K. Cook
 Ranunculus peltatus subsp. baudotii Cook
 Ranunculus peltatus subsp. baudotii Meikle
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve l'espèce en Europe, au sud-ouest de l'Asie et dans le nord de l'Afrique.
 En Europe, on la trouve de la Belgique à Malte, en passant par la Bosnie-Herzégovine.
@@ -612,9 +630,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, cette plante est protégée dans le Nord-Pas-de-Calais[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, cette plante est protégée dans le Nord-Pas-de-Calais.
 En Suisse, la plante est sur la liste rouge des plantes.
 </t>
         </is>
